--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_216.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_216.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,241 +488,283 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1004464285714286</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['C/3', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64)]</t>
+          <t>[['G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.15, 5.734)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:18.877585', '0:00:24.470647')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:01.597865', '0:01:06.393832')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_75</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_47</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06861413043478261</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb:maj6', 'Gb:dim7'], ['Eb:maj6', 'Eb:maj6', 'Eb:maj6'], ['Bb:7', 'Eb:maj6', 'Eb:maj6'], ['Eb:maj6', 'Eb:maj6', 'F:7'], ['Bb:7', 'Bb:7', 'Eb:maj6'], ['F:7', 'F:7', 'Bb:7']]</t>
-        </is>
+          <t>jaah_63</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.101242983159583</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db:maj6', 'Db:dim7'], ['Db:maj6', 'Db:maj6', 'Db:maj6'], ['Ab:7', 'Db:maj6', 'Db:maj6'], ['Db:maj6', 'Db:maj6', 'Eb:7'], ['Ab:7', 'Ab:7', 'Db:maj6'], ['Eb:7', 'Eb:7', 'Ab:7']]</t>
+          <t>[['C:7', 'F:min', 'G:dim7', 'F:min', 'G:dim7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(32.31, 36.14), (37.55, 41.84), (37.08, 39.92), (7.65, 13.29), (15.17, 20.84), (11.42, 17.06)]</t>
+          <t>[['D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(10.92, 12.65), (12.65, 14.4), (43.23, 46.7), (12.94, 14.68), (16.1, 16.97), (10.33, 12.08)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:19.460000', '0:01:29.810000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:16.920000', '0:00:23.320000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_151</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
-        </is>
+          <t>isophonics_70</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_19</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2153846153846154</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb'], ['F', 'Bb', 'F']]</t>
+          <t>[['D:min', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(145.04, 147.86), (142.14, 146.8)]</t>
+          <t>[['G:min', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(22.564557, 26.651269), (23.586235, 28.578526)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:20.956000', '0:01:25.176000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:45.474603', '0:00:48.945986')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_194</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2540540540540541</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(103.66, 110.88), (140.48, 145.98)]</t>
+          <t>[['G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(88.44, 94.9), (14.84, 22.2)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:35.197913', '0:00:46.610521')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:02:22.379117', '0:02:29.240614')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min'], ['A#/F', 'F:7', 'A#'], ['A#:min/F', 'F', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_78</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1245901639344262</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(25.42, 31.24), (24.68, 28.56), (271.22, 275.78), (13.36, 18.32)]</t>
+          <t>[['Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88), (7.7, 12.06), (39.18, 53.36), (0.34, 4.84)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:43.340000', '0:00:59.340000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>schubert-winterreise_185</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_116</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09018567639257294</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(19.98, 27.18), (8.44, 17.54)]</t>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -725,400 +772,404 @@
           <t>schubert-winterreise_126</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0.2664473684210527</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(17.581738, 30.271443)]</t>
+          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(58.08, 65.66)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:40.740000', '0:02:01.400000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:32.480000', '0:00:45.820000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_13</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.05137880986937591</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(6.12, 11.62)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(7.87, 14.66)]</t>
+          <t>[('0:00:21.340000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:01:03.100000', '0:01:06.700000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_69</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1272349272349272</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>jaah_30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>jaah_29</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4452380952380952</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb']]</t>
+          <t>[['Bb:7', 'Bb:7', 'Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb', 'Eb', 'C:7', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(18.79, 40.37)]</t>
+          <t>[['Ab:7', 'Ab:7', 'Db', 'Db', 'Ab:7', 'Ab:7', 'Db', 'Db', 'Bb:7', 'Bb:7', 'Eb:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(30.58, 45.59)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:37.710000', '0:01:47.670000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:19.820000', '0:01:30.460000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab:maj', 'Ab/7']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(54.072, 59.053)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(8.34, 15.04)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:58.440000', '0:02:02')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2223837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(66.427052, 71.593492)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(53.52, 59.34)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2642857142857143</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(63.6, 66.04)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_54</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(72.5, 86.12)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(33.31, 47.63)]</t>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:00.360000', '0:02:27.720000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.7, 62.32)]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(13.08, 74.3)]</t>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:00.780000', '0:01:38.820000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E'], ['C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min', 'A#:min'], ['C#/F', 'A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(38.12, 45.76), (35.14, 43.9), (41.18, 52.64)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(24.68, 31.24), (69.0, 74.9), (23.5, 28.56)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
